--- a/biology/Médecine/Priorité_Santé_Mutualiste/Priorité_Santé_Mutualiste.xlsx
+++ b/biology/Médecine/Priorité_Santé_Mutualiste/Priorité_Santé_Mutualiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Priorit%C3%A9_Sant%C3%A9_Mutualiste</t>
+          <t>Priorité_Santé_Mutualiste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Priorité Santé Mutualiste est un ensemble de services santé proposés par la Fédération nationale de la Mutualité Française accessibles aux adhérents des mutuelles via un site internet, et une plateforme téléphonique.  Des Rencontres santé (actions de prévention sur le terrain) sont accessibles au grand public.
 En 2018, les modalités d’accès aux services Priorité Santé Mutualiste évoluent.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Priorit%C3%A9_Sant%C3%A9_Mutualiste</t>
+          <t>Priorité_Santé_Mutualiste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les services Priorité Santé Mutualiste ont été mis en œuvre en avril 2008.
 En 2012, plus de 526 000 personnes, dont des adhérents mutualistes, ont bénéficié de ces services.
-L’objectif de ces services est de permettre aux adhérents des mutuelles mais également au grand public, d’accéder à des informations à caractère médical et médico-social[1] afin d’éviter « une perte de chance » lors d’un problème de santé ou de dépendance.
+L’objectif de ces services est de permettre aux adhérents des mutuelles mais également au grand public, d’accéder à des informations à caractère médical et médico-social afin d’éviter « une perte de chance » lors d’un problème de santé ou de dépendance.
 Octobre 2013 : ouverture d'une nouvelle thématique : "Maux du quotidien".
 Octobre 2014 : ouverture d'une nouvelle thématique : "Santé mentale &amp; Bien-être".
 Février 2018 : 
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Priorit%C3%A9_Sant%C3%A9_Mutualiste</t>
+          <t>Priorité_Santé_Mutualiste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le programme[2] se décline sur plusieurs canaux : une plateforme d’appels téléphoniques (3935)[3] pour les adhérents des mutuelles, un site internet lancé le 5 juin 2012 pour le grand public[4] (fermeture définitive du site en janvier 2019) et des « Rencontres Santé », actions de prévention organisées partout en France, également ouvertes à tous, permettant de débattre et d’échanger sur des sujets de santé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le programme se décline sur plusieurs canaux : une plateforme d’appels téléphoniques (3935) pour les adhérents des mutuelles, un site internet lancé le 5 juin 2012 pour le grand public (fermeture définitive du site en janvier 2019) et des « Rencontres Santé », actions de prévention organisées partout en France, également ouvertes à tous, permettant de débattre et d’échanger sur des sujets de santé.
 Les services s’appuient sur un ensemble d’avis, de recommandations et de bonnes pratiques sur un sujet de santé médico-social ou pratique. Le corpus de ces services est réalisé par des personnes reconnues experts dans leur domaine et indépendantes de tout lien d’intérêt avec des entreprises à caractère commercial.
-Pour cette raison, le site internet a obtenu le certificat HON-code[5], gage de qualité et d’indépendance, suivant les principes définis par la Haute Autorité de Santé.
+Pour cette raison, le site internet a obtenu le certificat HON-code, gage de qualité et d’indépendance, suivant les principes définis par la Haute Autorité de Santé.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Priorit%C3%A9_Sant%C3%A9_Mutualiste</t>
+          <t>Priorité_Santé_Mutualiste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Depuis son lancement en 2008, Priorité Santé Mutualiste a noué des partenariats avec des fédérations et des associations rentrant dans le champ médical et médico-social. Ces dernières lui apportent les compétences permettant de valider scientifiquement la démarche et les contenus :	 
 Fondation Médéric Alzheimer
